--- a/data/trans_camb/P1422-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1422-Dificultad-trans_camb.xlsx
@@ -624,7 +624,7 @@
         <v>-0.2483861356054197</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.9150404111192297</v>
+        <v>0.9150404111192301</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.492065402166245</v>
+        <v>-1.573361194263327</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.2297954940118507</v>
+        <v>-0.06678219819793287</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.7870282198114957</v>
+        <v>-0.7477274959563295</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.3940837076657809</v>
+        <v>-0.4254618131921605</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.8796128894087547</v>
+        <v>-0.9259697360698081</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1613391754080385</v>
+        <v>0.0771706792488949</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1738164561196824</v>
+        <v>0.07850557150681961</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.802265709404798</v>
+        <v>2.904444655662672</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.040608524743593</v>
+        <v>1.151707827832267</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.835372470709902</v>
+        <v>1.717031142083368</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.35631430602436</v>
+        <v>0.3070497768028429</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.848511800224992</v>
+        <v>1.917447832198395</v>
       </c>
     </row>
     <row r="7">
@@ -702,7 +702,7 @@
         <v>-0.215421342639137</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7935999867782931</v>
+        <v>0.7935999867782935</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8376687886463372</v>
+        <v>-0.8704100454136919</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1819681422994116</v>
+        <v>-0.08961006313932399</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5304858018279081</v>
+        <v>-0.5045341568872282</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2807650302819071</v>
+        <v>-0.2823299809464731</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5960111263284702</v>
+        <v>-0.594351570244357</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07439953553354101</v>
+        <v>-0.006586033300402008</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3604453592217862</v>
+        <v>0.2434787665666318</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.916118696086841</v>
+        <v>4.185073121066901</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.779810840288285</v>
+        <v>1.81904326642952</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.591999413679554</v>
+        <v>2.4357029998357</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4307640011819653</v>
+        <v>0.4114866020537241</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.080165025502173</v>
+        <v>2.180647295167034</v>
       </c>
     </row>
     <row r="10">
@@ -772,13 +772,13 @@
         <v>-0.3416592019193549</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3536053844239903</v>
+        <v>0.3536053844239899</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-0.3435300627997183</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.80812568080849</v>
+        <v>0.8081256808084898</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-0.341491572886045</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.299581040352981</v>
+        <v>-1.384263290438715</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7370060366023237</v>
+        <v>-0.6221438201216692</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8297872199703368</v>
+        <v>-0.8480298459058524</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1038655063895691</v>
+        <v>0.2087463848055941</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.9289096329324595</v>
+        <v>-0.8490853833291536</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07382301831101107</v>
+        <v>0.007934522363612438</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4965329440644259</v>
+        <v>0.4836758748258196</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.31226596327331</v>
+        <v>1.204879612335656</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07543468986659017</v>
+        <v>0.03024022403688607</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.522123765622967</v>
+        <v>1.458486439448004</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07432102399736359</v>
+        <v>0.06789924114111728</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.152839279930397</v>
+        <v>1.108222292805184</v>
       </c>
     </row>
     <row r="13">
@@ -850,13 +850,13 @@
         <v>-0.3595933991215712</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.3721666544275485</v>
+        <v>0.3721666544275481</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.7443982857477578</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>1.751134577742327</v>
+        <v>1.751134577742326</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.493342760121314</v>
@@ -873,20 +873,20 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8706364287253293</v>
+        <v>-0.8710564897337413</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4778011310742618</v>
+        <v>-0.463420073502499</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.01201425500429346</v>
+        <v>-0.03260144477522758</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8525833964722722</v>
+        <v>-0.8334657918080504</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01250143889833642</v>
+        <v>-0.0485335507629692</v>
       </c>
     </row>
     <row r="15">
@@ -897,20 +897,20 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.666678550571685</v>
+        <v>1.270026868694992</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.455416051721274</v>
+        <v>2.387276741516096</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>10.1341166648477</v>
+        <v>7.447940790694366</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.401068710470914</v>
+        <v>0.4585345672285198</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.821875205639717</v>
+        <v>2.560442556077757</v>
       </c>
     </row>
     <row r="16">
@@ -934,7 +934,7 @@
         <v>-0.1936391132398368</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.104463776204555</v>
+        <v>0.1044637762045549</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-0.2484220347461603</v>
@@ -951,22 +951,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.222231049766787</v>
+        <v>-1.031969655209934</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9332639888345002</v>
+        <v>-0.9233011707400793</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.8642877641025731</v>
+        <v>-0.8351075382765164</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.6300878525404801</v>
+        <v>-0.5869266683919736</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.8395575473673428</v>
+        <v>-0.7729306280323039</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.5449124574024512</v>
+        <v>-0.5304183789690634</v>
       </c>
     </row>
     <row r="18">
@@ -977,22 +977,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4805016457893275</v>
+        <v>0.5588679304615038</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6524528833628952</v>
+        <v>0.6427366334658836</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3661258927564098</v>
+        <v>0.4802934070742086</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6575038233115508</v>
+        <v>0.6626256712158436</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2172798952360903</v>
+        <v>0.2402513888479725</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4125207454591067</v>
+        <v>0.4855064124228149</v>
       </c>
     </row>
     <row r="19">
@@ -1012,7 +1012,7 @@
         <v>-0.3944746417837297</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.212809850283852</v>
+        <v>0.2128098502838519</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.359351906628361</v>
@@ -1029,20 +1029,20 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.883038254227445</v>
+        <v>-0.8054906216018557</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6560916875483268</v>
+        <v>-0.7070441553609351</v>
       </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.671722496458017</v>
+        <v>-0.6936616481441492</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8066975021616769</v>
+        <v>-0.8018379149962438</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5505068593875723</v>
+        <v>-0.5079583316062232</v>
       </c>
     </row>
     <row r="21">
@@ -1053,20 +1053,20 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.185423815053007</v>
+        <v>1.603504847655525</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.740715254464821</v>
+        <v>1.562011797785601</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>4.334325960222585</v>
+        <v>4.58586891032793</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5197709013677441</v>
+        <v>0.7324467072119648</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.000005608566295</v>
+        <v>1.271658827665913</v>
       </c>
     </row>
     <row r="22">
@@ -1084,7 +1084,7 @@
         <v>-0.03662481014183698</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3980602102326321</v>
+        <v>0.3980602102326319</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-0.3058951248033175</v>
@@ -1107,22 +1107,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.702259277250992</v>
+        <v>-1.541661446093377</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.332248682961861</v>
+        <v>-1.311229091513549</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.454860763700484</v>
+        <v>-1.314733180814162</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.278182726635502</v>
+        <v>-1.322338810671798</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.159038961094774</v>
+        <v>-1.166086213825444</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.7640545421104943</v>
+        <v>-0.7282714696678205</v>
       </c>
     </row>
     <row r="24">
@@ -1133,22 +1133,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9462122130929537</v>
+        <v>1.041341790460668</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.376532273888304</v>
+        <v>1.290811650825101</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.017225019395857</v>
+        <v>1.02419670800261</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6731704215304976</v>
+        <v>0.7337925703409903</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6278614499316671</v>
+        <v>0.6680886774623713</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8176732490514609</v>
+        <v>0.8066157611042515</v>
       </c>
     </row>
     <row r="25">
@@ -1162,7 +1162,7 @@
         <v>-0.0434439136614299</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.4721742812706831</v>
+        <v>0.4721742812706829</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.4161924131705887</v>
@@ -1186,17 +1186,17 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>-0.6626389744643125</v>
+        <v>-0.703294462076643</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>-0.7626136393994899</v>
+        <v>-0.7446123571659981</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.8498181522613693</v>
+        <v>-0.8686749215431905</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5325836233860123</v>
+        <v>-0.5001378647073855</v>
       </c>
     </row>
     <row r="27">
@@ -1208,17 +1208,17 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>6.496690287814426</v>
+        <v>5.577530215333703</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>3.017089167859203</v>
+        <v>4.050524109484393</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.215656498384142</v>
+        <v>2.517904092467389</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.325676818856511</v>
+        <v>2.313286414655817</v>
       </c>
     </row>
     <row r="28">
@@ -1236,13 +1236,13 @@
         <v>-0.3695156871904322</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.3027494936115581</v>
+        <v>0.3027494936115576</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>-0.1272521395294136</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.3169320716891776</v>
+        <v>0.3169320716891773</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-0.2461702929199739</v>
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.8095388968272592</v>
+        <v>-0.8517963879014089</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.2304308545363256</v>
+        <v>-0.1800861178550851</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.5125315822578964</v>
+        <v>-0.475830790866145</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.07506473729128145</v>
+        <v>-0.08061679010311434</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.5433757750401589</v>
+        <v>-0.5283475103415857</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.02777727417324051</v>
+        <v>-0.02821768618769538</v>
       </c>
     </row>
     <row r="30">
@@ -1285,22 +1285,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.08487187130874892</v>
+        <v>0.04296665179877004</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7773341762933615</v>
+        <v>0.8128721325880738</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3111891233571735</v>
+        <v>0.3128014249861481</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.6752193982179956</v>
+        <v>0.6997924398899396</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.04278228405573019</v>
+        <v>0.06484906438193813</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.60627997875258</v>
+        <v>0.613625799881373</v>
       </c>
     </row>
     <row r="31">
@@ -1314,13 +1314,13 @@
         <v>-0.3746738696909491</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.3069756663942651</v>
+        <v>0.3069756663942646</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>-0.1774742614246121</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>0.4420144569106264</v>
+        <v>0.4420144569106259</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.2899191723599089</v>
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.655534290667415</v>
+        <v>-0.6514621257008295</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1960308411791836</v>
+        <v>-0.149285525712607</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5611612342854846</v>
+        <v>-0.5353334230204114</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.08548004494400636</v>
+        <v>-0.09243868001812638</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5535100425249947</v>
+        <v>-0.5286347765695649</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.02994913619109121</v>
+        <v>-0.03278633575732774</v>
       </c>
     </row>
     <row r="33">
@@ -1363,22 +1363,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1542820543778252</v>
+        <v>0.07324699834468955</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.025469428428628</v>
+        <v>1.129442849367416</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6177844448236474</v>
+        <v>0.6414591157254236</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.335693444330973</v>
+        <v>1.338150942040623</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.07354136091264665</v>
+        <v>0.1006930400849173</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8833064458508511</v>
+        <v>0.9328198612061378</v>
       </c>
     </row>
     <row r="34">
